--- a/Doc/数据库设计.进销存.xlsx
+++ b/Doc/数据库设计.进销存.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" tabRatio="743" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="库设计-备注" sheetId="1" r:id="rId1"/>
     <sheet name="表设计样本" sheetId="2" r:id="rId2"/>
     <sheet name="用户表" sheetId="4" r:id="rId3"/>
     <sheet name="系统配置表" sheetId="5" r:id="rId4"/>
+    <sheet name="仓库表" sheetId="7" r:id="rId5"/>
+    <sheet name="库存记录表" sheetId="6" r:id="rId6"/>
+    <sheet name="入库记录表" sheetId="8" r:id="rId7"/>
+    <sheet name="出库记录表" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1035,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1347,4 +1351,56 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>